--- a/3-Katet/regjistri/Siperfaqet.xlsx
+++ b/3-Katet/regjistri/Siperfaqet.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\2325-0-Ferzaj-Naimi\3-Katet\regjistri\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Komuna</t>
   </si>
@@ -38,12 +33,6 @@
     <t>Etazhiteti</t>
   </si>
   <si>
-    <t>Bodrumi</t>
-  </si>
-  <si>
-    <t>Nënkulëm</t>
-  </si>
-  <si>
     <t>Sqarim</t>
   </si>
   <si>
@@ -53,13 +42,6 @@
     <t>Ferizaj</t>
   </si>
   <si>
-    <t>O-72217092-02325-2-____-____</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B+P+3+NK
-</t>
-  </si>
-  <si>
     <t>Shkallët</t>
   </si>
   <si>
@@ -75,15 +57,6 @@
     <t xml:space="preserve"> (m²)</t>
   </si>
   <si>
-    <t>Kati I</t>
-  </si>
-  <si>
-    <t>Kati II</t>
-  </si>
-  <si>
-    <t>Kati III</t>
-  </si>
-  <si>
     <t>Përdhesa</t>
   </si>
   <si>
@@ -91,13 +64,22 @@
   </si>
   <si>
     <t>Perdhesa</t>
+  </si>
+  <si>
+    <t>Nënkulm</t>
+  </si>
+  <si>
+    <t>O-72217092-00733-20-____-____</t>
+  </si>
+  <si>
+    <t>P+NK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -185,21 +167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -348,6 +315,30 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -359,41 +350,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +482,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,24 +659,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -696,8 +687,8 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,202 +698,156 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>4</v>
+      <c r="C3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <v>218.49</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="20"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="6">
         <v>6.07</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="6">
         <v>61.7</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="6">
         <v>53.49</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="6">
         <v>160.19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="6">
         <v>218.16</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6">
-        <v>223.85</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="4"/>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="7">
+        <f>SUM(G3:G8)</f>
+        <v>718.1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6">
-        <v>223.85</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>54.68</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="7">
-        <f>SUM(G3:G11)</f>
-        <v>1220.48</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/3-Katet/regjistri/Siperfaqet.xlsx
+++ b/3-Katet/regjistri/Siperfaqet.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\733-20-FER-AGIMI\3-Katet\regjistri\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Komuna</t>
   </si>
@@ -60,12 +65,6 @@
     <t>Përdhesa</t>
   </si>
   <si>
-    <t>Aneksi</t>
-  </si>
-  <si>
-    <t>Perdhesa</t>
-  </si>
-  <si>
     <t>Nënkulm</t>
   </si>
   <si>
@@ -73,13 +72,16 @@
   </si>
   <si>
     <t>P+NK</t>
+  </si>
+  <si>
+    <t>Garazha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -243,43 +245,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -345,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -354,21 +319,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -381,11 +334,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,24 +615,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -687,8 +643,8 @@
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:9">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,10 +654,10 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -712,142 +668,158 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>218.49</v>
+        <v>94.96</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="6">
-        <v>6.07</v>
+        <v>27.27</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6">
-        <v>61.7</v>
+        <v>5.76</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="12"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6">
-        <v>53.49</v>
+        <v>10.46</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="13"/>
       <c r="G7" s="6">
-        <v>160.19</v>
+        <v>100.46</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="11" t="s">
-        <v>15</v>
-      </c>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="6">
-        <v>218.16</v>
+        <v>1.67</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="7">
-        <f>SUM(G3:G8)</f>
-        <v>718.1</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7">
+        <f>SUM(G3:G9)</f>
+        <v>242.24999999999994</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I10" s="5"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1"/>
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/3-Katet/regjistri/Siperfaqet.xlsx
+++ b/3-Katet/regjistri/Siperfaqet.xlsx
@@ -65,16 +65,16 @@
     <t>Përdhesa</t>
   </si>
   <si>
-    <t>Nënkulm</t>
-  </si>
-  <si>
     <t>O-72217092-00733-20-____-____</t>
   </si>
   <si>
-    <t>P+NK</t>
-  </si>
-  <si>
     <t>Garazha</t>
+  </si>
+  <si>
+    <t>Kati-1</t>
+  </si>
+  <si>
+    <t>P+1</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>12</v>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="6">
         <v>100.46</v>
@@ -757,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">

--- a/3-Katet/regjistri/Siperfaqet.xlsx
+++ b/3-Katet/regjistri/Siperfaqet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Komuna</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>O-72217092-00733-20-____-____</t>
-  </si>
-  <si>
-    <t>Garazha</t>
   </si>
   <si>
     <t>Kati-1</t>
@@ -626,10 +623,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,13 +676,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>94.96</v>
+        <v>122.22</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>8</v>
@@ -701,13 +698,13 @@
       <c r="E4" s="14"/>
       <c r="F4" s="17"/>
       <c r="G4" s="6">
-        <v>27.27</v>
+        <v>5.76</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -717,13 +714,13 @@
       <c r="E5" s="14"/>
       <c r="F5" s="17"/>
       <c r="G5" s="6">
-        <v>5.76</v>
+        <v>10.46</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -731,15 +728,17 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="6">
-        <v>10.46</v>
+        <v>100.46</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -747,17 +746,15 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="6">
-        <v>100.46</v>
+        <v>1.67</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -776,50 +773,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="6">
-        <v>1.67</v>
-      </c>
-      <c r="H9" s="9" t="s">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7">
+        <f>SUM(G3:G8)</f>
+        <v>242.23999999999995</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7">
-        <f>SUM(G3:G9)</f>
-        <v>242.24999999999994</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/3-Katet/regjistri/Siperfaqet.xlsx
+++ b/3-Katet/regjistri/Siperfaqet.xlsx
@@ -65,13 +65,13 @@
     <t>Përdhesa</t>
   </si>
   <si>
-    <t>O-72217092-00733-20-____-____</t>
-  </si>
-  <si>
     <t>Kati-1</t>
   </si>
   <si>
     <t>P+1</t>
+  </si>
+  <si>
+    <t>O-72217092-03227-0-____-____</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>12</v>
@@ -729,7 +729,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6">
         <v>100.46</v>
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
